--- a/delta2/lib_p/temp_patterns.xlsx
+++ b/delta2/lib_p/temp_patterns.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10309"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/harveywargo/Desktop/GithubProjects/h2w-delta/delta2/lib_p/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9B8D2B45-2D64-5947-9809-DA75696AF9C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BAE9CC35-51BC-F24F-A0EC-E1012273F49E}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="760" windowWidth="34560" windowHeight="21580" xr2:uid="{DC0058BD-8D67-4941-BBEC-0C41DFD617CC}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="8" uniqueCount="8">
   <si>
     <t>delta_pattern</t>
   </si>
@@ -60,9 +60,6 @@
   </si>
   <si>
     <t>delta_did</t>
-  </si>
-  <si>
-    <t>delta_duc</t>
   </si>
 </sst>
 </file>
@@ -107,10 +104,7 @@
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="10">
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
+  <dxfs count="9">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -152,18 +146,17 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:I2" totalsRowShown="0" dataDxfId="9">
-  <autoFilter ref="A1:I2" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
-  <tableColumns count="9">
-    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="8"/>
-    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_did" dataDxfId="7"/>
-    <tableColumn id="3" xr3:uid="{25CCEDAF-1010-9345-9634-3862F5590C9E}" name="delta_category" dataDxfId="0"/>
-    <tableColumn id="7" xr3:uid="{A365D5D6-45D3-A949-BA4B-4557C33F3D25}" name="delta_duc" dataDxfId="6"/>
-    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="5"/>
-    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="4"/>
-    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="3"/>
-    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="2"/>
-    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="1"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}" name="Table1" displayName="Table1" ref="A1:H2" totalsRowShown="0" dataDxfId="8">
+  <autoFilter ref="A1:H2" xr:uid="{48724C37-A4EF-BD41-8B36-E52763609268}"/>
+  <tableColumns count="8">
+    <tableColumn id="1" xr3:uid="{7D4B3AB6-B672-1C40-9238-21F80D82D786}" name="delta_pid" dataDxfId="7"/>
+    <tableColumn id="2" xr3:uid="{8B35991C-1CFD-C74E-99DA-EDE3F791E9D6}" name="delta_did" dataDxfId="6"/>
+    <tableColumn id="3" xr3:uid="{25CCEDAF-1010-9345-9634-3862F5590C9E}" name="delta_category" dataDxfId="5"/>
+    <tableColumn id="4" xr3:uid="{433ECAB0-EBD0-8F46-9A69-22D02B31F424}" name="delta_pattern" dataDxfId="4"/>
+    <tableColumn id="5" xr3:uid="{B77FB323-DC1E-394E-A29C-AD0CE8A05098}" name="mitre_technique" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{6E4A396E-9FCB-864D-A803-490AE03E573D}" name="mitre_sub_technique" dataDxfId="2"/>
+    <tableColumn id="8" xr3:uid="{679473FD-2DAD-8E45-AC30-54CF949ECBDB}" name="name" dataDxfId="1"/>
+    <tableColumn id="9" xr3:uid="{EFF84C11-AEFB-9742-BFA7-A0134DAADCBC}" name="description" dataDxfId="0"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleMedium15" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -486,26 +479,25 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C1D53A90-A29C-2641-AD43-11CCFA7849AF}">
-  <dimension ref="A1:I2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C5" sqref="C5"/>
+      <selection pane="bottomLeft" activeCell="D1" sqref="D1:D1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="24.1640625" customWidth="1"/>
     <col min="2" max="3" width="18.33203125" customWidth="1"/>
-    <col min="4" max="4" width="15.5" customWidth="1"/>
-    <col min="5" max="5" width="80.6640625" customWidth="1"/>
-    <col min="6" max="6" width="17.1640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="54.83203125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="47.33203125" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="90.1640625" customWidth="1"/>
+    <col min="5" max="5" width="17.1640625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="19.5" customWidth="1"/>
+    <col min="7" max="7" width="54.83203125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="47.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>1</v>
       </c>
@@ -516,25 +508,22 @@
         <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="E1" t="s">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="F1" t="s">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="G1" t="s">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="H1" t="s">
-        <v>5</v>
-      </c>
-      <c r="I1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:8" x14ac:dyDescent="0.2">
       <c r="A2" s="1"/>
       <c r="B2" s="1"/>
       <c r="C2" s="1"/>
@@ -543,7 +532,6 @@
       <c r="F2" s="1"/>
       <c r="G2" s="1"/>
       <c r="H2" s="1"/>
-      <c r="I2" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
